--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H2">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14656221287853</v>
+        <v>7.666529666666666</v>
       </c>
       <c r="N2">
-        <v>7.14656221287853</v>
+        <v>22.999589</v>
       </c>
       <c r="O2">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="P2">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="Q2">
-        <v>73.7863384466243</v>
+        <v>80.2751639365331</v>
       </c>
       <c r="R2">
-        <v>73.7863384466243</v>
+        <v>722.476475428798</v>
       </c>
       <c r="S2">
-        <v>0.05035841308772137</v>
+        <v>0.04949076170446996</v>
       </c>
       <c r="T2">
-        <v>0.05035841308772137</v>
+        <v>0.04949076170446996</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H3">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.98004992998561</v>
+        <v>3.054077</v>
       </c>
       <c r="N3">
-        <v>2.98004992998561</v>
+        <v>9.162231</v>
       </c>
       <c r="O3">
-        <v>0.06126390510453886</v>
+        <v>0.05794227285185909</v>
       </c>
       <c r="P3">
-        <v>0.06126390510453886</v>
+        <v>0.0579422728518591</v>
       </c>
       <c r="Q3">
-        <v>30.7682164055758</v>
+        <v>31.97881473227133</v>
       </c>
       <c r="R3">
-        <v>30.7682164055758</v>
+        <v>287.809332590442</v>
       </c>
       <c r="S3">
-        <v>0.0209989895737302</v>
+        <v>0.01971538670114094</v>
       </c>
       <c r="T3">
-        <v>0.0209989895737302</v>
+        <v>0.01971538670114095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H4">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.39519511957328</v>
+        <v>5.432633</v>
       </c>
       <c r="N4">
-        <v>5.39519511957328</v>
+        <v>16.297899</v>
       </c>
       <c r="O4">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="P4">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="Q4">
-        <v>55.70394284975576</v>
+        <v>56.88434319613533</v>
       </c>
       <c r="R4">
-        <v>55.70394284975576</v>
+        <v>511.959088765218</v>
       </c>
       <c r="S4">
-        <v>0.03801736505290918</v>
+        <v>0.03506999345477518</v>
       </c>
       <c r="T4">
-        <v>0.03801736505290918</v>
+        <v>0.03506999345477519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H5">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.77600379342348</v>
+        <v>8.651772333333334</v>
       </c>
       <c r="N5">
-        <v>7.77600379342348</v>
+        <v>25.955317</v>
       </c>
       <c r="O5">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="P5">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="Q5">
-        <v>80.28515397652659</v>
+        <v>90.59150262205489</v>
       </c>
       <c r="R5">
-        <v>80.28515397652659</v>
+        <v>815.323523598494</v>
       </c>
       <c r="S5">
-        <v>0.05479378749341111</v>
+        <v>0.05585092884098834</v>
       </c>
       <c r="T5">
-        <v>0.05479378749341111</v>
+        <v>0.05585092884098834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H6">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.3450223531512</v>
+        <v>27.903949</v>
       </c>
       <c r="N6">
-        <v>25.3450223531512</v>
+        <v>83.71184699999999</v>
       </c>
       <c r="O6">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655343</v>
       </c>
       <c r="P6">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655344</v>
       </c>
       <c r="Q6">
-        <v>261.680559348775</v>
+        <v>292.1783620287727</v>
       </c>
       <c r="R6">
-        <v>261.680559348775</v>
+        <v>2629.605258258954</v>
       </c>
       <c r="S6">
-        <v>0.1785942761510546</v>
+        <v>0.1801320480865135</v>
       </c>
       <c r="T6">
-        <v>0.1785942761510546</v>
+        <v>0.1801320480865136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H7">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J7">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.14656221287853</v>
+        <v>7.666529666666666</v>
       </c>
       <c r="N7">
-        <v>7.14656221287853</v>
+        <v>22.999589</v>
       </c>
       <c r="O7">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="P7">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="Q7">
-        <v>90.41081282424311</v>
+        <v>98.46228060152478</v>
       </c>
       <c r="R7">
-        <v>90.41081282424311</v>
+        <v>886.160525413723</v>
       </c>
       <c r="S7">
-        <v>0.06170444496433997</v>
+        <v>0.06070337358614891</v>
       </c>
       <c r="T7">
-        <v>0.06170444496433997</v>
+        <v>0.06070337358614891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H8">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J8">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.98004992998561</v>
+        <v>3.054077</v>
       </c>
       <c r="N8">
-        <v>2.98004992998561</v>
+        <v>9.162231</v>
       </c>
       <c r="O8">
-        <v>0.06126390510453886</v>
+        <v>0.05794227285185909</v>
       </c>
       <c r="P8">
-        <v>0.06126390510453886</v>
+        <v>0.0579422728518591</v>
       </c>
       <c r="Q8">
-        <v>37.70046749768738</v>
+        <v>39.22392524744633</v>
       </c>
       <c r="R8">
-        <v>37.70046749768738</v>
+        <v>353.015327227017</v>
       </c>
       <c r="S8">
-        <v>0.02573017926918979</v>
+        <v>0.0241820987007896</v>
       </c>
       <c r="T8">
-        <v>0.02573017926918979</v>
+        <v>0.0241820987007896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H9">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J9">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.39519511957328</v>
+        <v>5.432633</v>
       </c>
       <c r="N9">
-        <v>5.39519511957328</v>
+        <v>16.297899</v>
       </c>
       <c r="O9">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="P9">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="Q9">
-        <v>68.25435245312691</v>
+        <v>69.77204264621034</v>
       </c>
       <c r="R9">
-        <v>68.25435245312691</v>
+        <v>627.9483838158931</v>
       </c>
       <c r="S9">
-        <v>0.0465828898442479</v>
+        <v>0.04301544047879825</v>
       </c>
       <c r="T9">
-        <v>0.0465828898442479</v>
+        <v>0.04301544047879825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H10">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J10">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.77600379342348</v>
+        <v>8.651772333333334</v>
       </c>
       <c r="N10">
-        <v>7.77600379342348</v>
+        <v>25.955317</v>
       </c>
       <c r="O10">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="P10">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="Q10">
-        <v>98.37384780907722</v>
+        <v>111.1158858341132</v>
       </c>
       <c r="R10">
-        <v>98.37384780907722</v>
+        <v>1000.042972507019</v>
       </c>
       <c r="S10">
-        <v>0.06713913400895673</v>
+        <v>0.06850449824985663</v>
       </c>
       <c r="T10">
-        <v>0.06713913400895673</v>
+        <v>0.06850449824985663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H11">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J11">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.3450223531512</v>
+        <v>27.903949</v>
       </c>
       <c r="N11">
-        <v>25.3450223531512</v>
+        <v>83.71184699999999</v>
       </c>
       <c r="O11">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655343</v>
       </c>
       <c r="P11">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655344</v>
       </c>
       <c r="Q11">
-        <v>320.6386516677426</v>
+        <v>358.3742026427477</v>
       </c>
       <c r="R11">
-        <v>320.6386516677426</v>
+        <v>3225.367823784728</v>
       </c>
       <c r="S11">
-        <v>0.2188325645709406</v>
+        <v>0.2209427099774495</v>
       </c>
       <c r="T11">
-        <v>0.2188325645709406</v>
+        <v>0.2209427099774496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H12">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I12">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J12">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.14656221287853</v>
+        <v>7.666529666666666</v>
       </c>
       <c r="N12">
-        <v>7.14656221287853</v>
+        <v>22.999589</v>
       </c>
       <c r="O12">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="P12">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="Q12">
-        <v>12.13415513915426</v>
+        <v>13.95976409618289</v>
       </c>
       <c r="R12">
-        <v>12.13415513915426</v>
+        <v>125.637876865646</v>
       </c>
       <c r="S12">
-        <v>0.00828143542330746</v>
+        <v>0.008606389877708922</v>
       </c>
       <c r="T12">
-        <v>0.00828143542330746</v>
+        <v>0.008606389877708922</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H13">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I13">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J13">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.98004992998561</v>
+        <v>3.054077</v>
       </c>
       <c r="N13">
-        <v>2.98004992998561</v>
+        <v>9.162231</v>
       </c>
       <c r="O13">
-        <v>0.06126390510453886</v>
+        <v>0.05794227285185909</v>
       </c>
       <c r="P13">
-        <v>0.06126390510453886</v>
+        <v>0.0579422728518591</v>
       </c>
       <c r="Q13">
-        <v>5.059829760903505</v>
+        <v>5.561081259092667</v>
       </c>
       <c r="R13">
-        <v>5.059829760903505</v>
+        <v>50.049731331834</v>
       </c>
       <c r="S13">
-        <v>0.003453281496512345</v>
+        <v>0.003428484401857394</v>
       </c>
       <c r="T13">
-        <v>0.003453281496512345</v>
+        <v>0.003428484401857394</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H14">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I14">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J14">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.39519511957328</v>
+        <v>5.432633</v>
       </c>
       <c r="N14">
-        <v>5.39519511957328</v>
+        <v>16.297899</v>
       </c>
       <c r="O14">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="P14">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="Q14">
-        <v>9.160507197283788</v>
+        <v>9.892125694220669</v>
       </c>
       <c r="R14">
-        <v>9.160507197283788</v>
+        <v>89.02913124798602</v>
       </c>
       <c r="S14">
-        <v>0.006251951448540355</v>
+        <v>0.006098633892176177</v>
       </c>
       <c r="T14">
-        <v>0.006251951448540355</v>
+        <v>0.006098633892176177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H15">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I15">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J15">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.77600379342348</v>
+        <v>8.651772333333334</v>
       </c>
       <c r="N15">
-        <v>7.77600379342348</v>
+        <v>25.955317</v>
       </c>
       <c r="O15">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="P15">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="Q15">
-        <v>13.20288462920239</v>
+        <v>15.75376422429311</v>
       </c>
       <c r="R15">
-        <v>13.20288462920239</v>
+        <v>141.783878018638</v>
       </c>
       <c r="S15">
-        <v>0.009010832250306886</v>
+        <v>0.009712416056718506</v>
       </c>
       <c r="T15">
-        <v>0.009010832250306886</v>
+        <v>0.009712416056718505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H16">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I16">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J16">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.3450223531512</v>
+        <v>27.903949</v>
       </c>
       <c r="N16">
-        <v>25.3450223531512</v>
+        <v>83.71184699999999</v>
       </c>
       <c r="O16">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655343</v>
       </c>
       <c r="P16">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655344</v>
       </c>
       <c r="Q16">
-        <v>43.03333883867452</v>
+        <v>50.80950082089533</v>
       </c>
       <c r="R16">
-        <v>43.03333883867452</v>
+        <v>457.285507388058</v>
       </c>
       <c r="S16">
-        <v>0.02936980882103928</v>
+        <v>0.0313247681367314</v>
       </c>
       <c r="T16">
-        <v>0.02936980882103928</v>
+        <v>0.0313247681367314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H17">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.14656221287853</v>
+        <v>7.666529666666666</v>
       </c>
       <c r="N17">
-        <v>7.14656221287853</v>
+        <v>22.999589</v>
       </c>
       <c r="O17">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="P17">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="Q17">
-        <v>15.47623490983932</v>
+        <v>16.63560783471977</v>
       </c>
       <c r="R17">
-        <v>15.47623490983932</v>
+        <v>149.720470512478</v>
       </c>
       <c r="S17">
-        <v>0.01056237031189827</v>
+        <v>0.01025608498050595</v>
       </c>
       <c r="T17">
-        <v>0.01056237031189827</v>
+        <v>0.01025608498050595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H18">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.98004992998561</v>
+        <v>3.054077</v>
       </c>
       <c r="N18">
-        <v>2.98004992998561</v>
+        <v>9.162231</v>
       </c>
       <c r="O18">
-        <v>0.06126390510453886</v>
+        <v>0.05794227285185909</v>
       </c>
       <c r="P18">
-        <v>0.06126390510453886</v>
+        <v>0.0579422728518591</v>
       </c>
       <c r="Q18">
-        <v>6.453445920668907</v>
+        <v>6.627043718351333</v>
       </c>
       <c r="R18">
-        <v>6.453445920668907</v>
+        <v>59.64339346516199</v>
       </c>
       <c r="S18">
-        <v>0.004404410116479809</v>
+        <v>0.00408566517197442</v>
       </c>
       <c r="T18">
-        <v>0.004404410116479809</v>
+        <v>0.00408566517197442</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H19">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.39519511957328</v>
+        <v>5.432633</v>
       </c>
       <c r="N19">
-        <v>5.39519511957328</v>
+        <v>16.297899</v>
       </c>
       <c r="O19">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="P19">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="Q19">
-        <v>11.68356260923155</v>
+        <v>11.78827396845533</v>
       </c>
       <c r="R19">
-        <v>11.68356260923155</v>
+        <v>106.094465716098</v>
       </c>
       <c r="S19">
-        <v>0.00797391068046494</v>
+        <v>0.007267635832436089</v>
       </c>
       <c r="T19">
-        <v>0.00797391068046494</v>
+        <v>0.007267635832436089</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H20">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.77600379342348</v>
+        <v>8.651772333333334</v>
       </c>
       <c r="N20">
-        <v>7.77600379342348</v>
+        <v>25.955317</v>
       </c>
       <c r="O20">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="P20">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="Q20">
-        <v>16.83932187002552</v>
+        <v>18.77348655394822</v>
       </c>
       <c r="R20">
-        <v>16.83932187002552</v>
+        <v>168.961378985534</v>
       </c>
       <c r="S20">
-        <v>0.01149266306880473</v>
+        <v>0.0115741171221786</v>
       </c>
       <c r="T20">
-        <v>0.01149266306880473</v>
+        <v>0.0115741171221786</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H21">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.3450223531512</v>
+        <v>27.903949</v>
       </c>
       <c r="N21">
-        <v>25.3450223531512</v>
+        <v>83.71184699999999</v>
       </c>
       <c r="O21">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655343</v>
       </c>
       <c r="P21">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655344</v>
       </c>
       <c r="Q21">
-        <v>54.88590290666562</v>
+        <v>60.54879753773265</v>
       </c>
       <c r="R21">
-        <v>54.88590290666562</v>
+        <v>544.9391778395939</v>
       </c>
       <c r="S21">
-        <v>0.03745906124974393</v>
+        <v>0.03732918082610571</v>
       </c>
       <c r="T21">
-        <v>0.03745906124974393</v>
+        <v>0.03732918082610572</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H22">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.14656221287853</v>
+        <v>7.666529666666666</v>
       </c>
       <c r="N22">
-        <v>7.14656221287853</v>
+        <v>22.999589</v>
       </c>
       <c r="O22">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="P22">
-        <v>0.1469191186456355</v>
+        <v>0.1454502141802163</v>
       </c>
       <c r="Q22">
-        <v>23.46182774828034</v>
+        <v>26.59080615869733</v>
       </c>
       <c r="R22">
-        <v>23.46182774828034</v>
+        <v>239.317255428276</v>
       </c>
       <c r="S22">
-        <v>0.01601245485836841</v>
+        <v>0.01639360403138252</v>
       </c>
       <c r="T22">
-        <v>0.01601245485836841</v>
+        <v>0.01639360403138252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H23">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.98004992998561</v>
+        <v>3.054077</v>
       </c>
       <c r="N23">
-        <v>2.98004992998561</v>
+        <v>9.162231</v>
       </c>
       <c r="O23">
-        <v>0.06126390510453886</v>
+        <v>0.05794227285185909</v>
       </c>
       <c r="P23">
-        <v>0.06126390510453886</v>
+        <v>0.0579422728518591</v>
       </c>
       <c r="Q23">
-        <v>9.783363812687718</v>
+        <v>10.592846180956</v>
       </c>
       <c r="R23">
-        <v>9.783363812687718</v>
+        <v>95.335615628604</v>
       </c>
       <c r="S23">
-        <v>0.006677044648626721</v>
+        <v>0.006530637876096737</v>
       </c>
       <c r="T23">
-        <v>0.006677044648626721</v>
+        <v>0.006530637876096738</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H24">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.39519511957328</v>
+        <v>5.432633</v>
       </c>
       <c r="N24">
-        <v>5.39519511957328</v>
+        <v>16.297899</v>
       </c>
       <c r="O24">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="P24">
-        <v>0.1109144912305562</v>
+        <v>0.1030684896255117</v>
       </c>
       <c r="Q24">
-        <v>17.71217192172263</v>
+        <v>18.842696410924</v>
       </c>
       <c r="R24">
-        <v>17.71217192172263</v>
+        <v>169.584267698316</v>
       </c>
       <c r="S24">
-        <v>0.01208837420439386</v>
+        <v>0.01161678596732599</v>
       </c>
       <c r="T24">
-        <v>0.01208837420439386</v>
+        <v>0.01161678596732599</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H25">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.77600379342348</v>
+        <v>8.651772333333334</v>
       </c>
       <c r="N25">
-        <v>7.77600379342348</v>
+        <v>25.955317</v>
       </c>
       <c r="O25">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="P25">
-        <v>0.1598591868207828</v>
+        <v>0.1641423425768786</v>
       </c>
       <c r="Q25">
-        <v>25.52825486392741</v>
+        <v>30.00804941055867</v>
       </c>
       <c r="R25">
-        <v>25.52825486392741</v>
+        <v>270.072444695028</v>
       </c>
       <c r="S25">
-        <v>0.01742276999930335</v>
+        <v>0.0185003823071365</v>
       </c>
       <c r="T25">
-        <v>0.01742276999930335</v>
+        <v>0.0185003823071365</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H26">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.3450223531512</v>
+        <v>27.903949</v>
       </c>
       <c r="N26">
-        <v>25.3450223531512</v>
+        <v>83.71184699999999</v>
       </c>
       <c r="O26">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655343</v>
       </c>
       <c r="P26">
-        <v>0.5210432981984867</v>
+        <v>0.5293966807655344</v>
       </c>
       <c r="Q26">
-        <v>83.20651678570302</v>
+        <v>96.78283802217199</v>
       </c>
       <c r="R26">
-        <v>83.20651678570302</v>
+        <v>871.0455421995479</v>
       </c>
       <c r="S26">
-        <v>0.05678758740570834</v>
+        <v>0.05966797373873405</v>
       </c>
       <c r="T26">
-        <v>0.05678758740570834</v>
+        <v>0.05966797373873407</v>
       </c>
     </row>
   </sheetData>
